--- a/biology/Botanique/Quinquina_(apéritif)/Quinquina_(apéritif).xlsx
+++ b/biology/Botanique/Quinquina_(apéritif)/Quinquina_(apéritif).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Quinquina_(ap%C3%A9ritif)</t>
+          <t>Quinquina_(apéritif)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,22 +490,24 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Quinquina est un vin apéritif aromatisé de diverses plantes dont, traditionnellement, de l'écorce de quinquina[1]; celle-ci contient de la quinine, réputée bénéfique dans le traitement de la malaria[réf. souhaitée].
-L'americano peut être considéré comme une sous-classe de quinquina ou comme une catégorie à part : le véritable americano utilise la racine de gentiane comme agent gustatif[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Quinquina est un vin apéritif aromatisé de diverses plantes dont, traditionnellement, de l'écorce de quinquina; celle-ci contient de la quinine, réputée bénéfique dans le traitement de la malaria[réf. souhaitée].
+L'americano peut être considéré comme une sous-classe de quinquina ou comme une catégorie à part : le véritable americano utilise la racine de gentiane comme agent gustatif.
 Le quinquina est une plante introduite d'Amérique du Sud en Europe au xviie siècle par des missionnaires espagnols.
 Liste de quelques vins apéritifs au quinquina :
-Bonal Gentiane Quina[3] ;
+Bonal Gentiane Quina ;
 Byrrh ;
-Cap Corse Mattei[4] ;
+Cap Corse Mattei ;
 Cocchi Americano (en) ;
-Contratto Americano Rosso[5] ;
+Contratto Americano Rosso ;
 Dubonnet ;
 Duhomard ;
 Kina Karo (originaire des corbières) ;
 Madaskina ;
-Maidenii[6] ;
+Maidenii ;
 Quina Lillet ;
 Saint Raphael.
 On produit en Italie une liqueur au quinquina, l'Amaro.
